--- a/saybapco/CS_OLD2/023-A-PFD-00001-002-RA-CS.xlsx
+++ b/saybapco/CS_OLD2/023-A-PFD-00001-002-RA-CS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\076551C-BAPCO\OK-CARICATI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/py3/saybapco/saybapco/CS_OLD2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E59D0C-5914-C04E-B4CB-B6519C84FFD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="12588"/>
+    <workbookView xWindow="480" yWindow="440" windowWidth="27800" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="023-A-PFD-00001-002-RA" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -36,9 +37,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>ZFHDVRCJBEKFGWBN</t>
-  </si>
-  <si>
     <t>Callout</t>
   </si>
   <si>
@@ -51,33 +49,15 @@
     <t>center</t>
   </si>
   <si>
-    <t>PMVSXMXWAXBTIPJO</t>
-  </si>
-  <si>
     <t>Arrow</t>
   </si>
   <si>
-    <t>SKVHFJDNYEPAWVDP</t>
-  </si>
-  <si>
     <t>1 should come before 1A</t>
   </si>
   <si>
-    <t>GVOVKJCEGDEQMWGS</t>
-  </si>
-  <si>
-    <t>HZBJHRQBBNMGLSJJ</t>
-  </si>
-  <si>
     <t>2 should come before 2A</t>
   </si>
   <si>
-    <t>POKDCNVTLKQXUJVZ</t>
-  </si>
-  <si>
-    <t>SXQRBOTHWDDTJHBM</t>
-  </si>
-  <si>
     <t>Call-out</t>
   </si>
   <si>
@@ -85,9 +65,6 @@
   </si>
   <si>
     <t>Values for vapor viscosity to be shown with 3 decimal digits.</t>
-  </si>
-  <si>
-    <t>TDVXTOHONWCUEKKM</t>
   </si>
   <si>
     <t>Values for S.G. to be shown with 4 decimal digits.</t>
@@ -105,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,48 +578,48 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,7 +635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,6 +710,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -768,6 +762,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -943,24 +954,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="55.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="55.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -977,140 +988,140 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
